--- a/results/table2/MV.xlsx
+++ b/results/table2/MV.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -505,10 +505,10 @@
       </c>
       <c r="B4" s="1" t="inlineStr"/>
       <c r="C4" t="n">
-        <v>1203</v>
+        <v>1503</v>
       </c>
       <c r="D4" t="n">
-        <v>5605</v>
+        <v>7073</v>
       </c>
     </row>
     <row r="5">
@@ -524,12 +524,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>489 (40.6)</t>
+          <t>600 (39.9)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2110 (37.6)</t>
+          <t>2662 (37.6)</t>
         </is>
       </c>
     </row>
@@ -542,12 +542,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>299 (24.9)</t>
+          <t>376 (25.0)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1340 (23.9)</t>
+          <t>1684 (23.8)</t>
         </is>
       </c>
     </row>
@@ -560,12 +560,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>253 (21.0)</t>
+          <t>319 (21.2)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1256 (22.4)</t>
+          <t>1615 (22.8)</t>
         </is>
       </c>
     </row>
@@ -578,12 +578,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>162 (13.5)</t>
+          <t>208 (13.8)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>899 (16.0)</t>
+          <t>1112 (15.7)</t>
         </is>
       </c>
     </row>
@@ -600,12 +600,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>581 (48.3)</t>
+          <t>716 (47.6)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2365 (42.2)</t>
+          <t>2932 (41.5)</t>
         </is>
       </c>
     </row>
@@ -622,12 +622,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>414 (34.4)</t>
+          <t>545 (36.3)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2798 (49.9)</t>
+          <t>3586 (50.7)</t>
         </is>
       </c>
     </row>
@@ -640,12 +640,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>170 (14.1)</t>
+          <t>205 (13.6)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>316 (5.6)</t>
+          <t>399 (5.6)</t>
         </is>
       </c>
     </row>
@@ -658,12 +658,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>619 (51.5)</t>
+          <t>753 (50.1)</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2491 (44.4)</t>
+          <t>3088 (43.7)</t>
         </is>
       </c>
     </row>
@@ -680,12 +680,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>385 (32.0)</t>
+          <t>480 (31.9)</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>277 (4.9)</t>
+          <t>331 (4.7)</t>
         </is>
       </c>
     </row>
@@ -702,12 +702,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>89 (7.4)</t>
+          <t>114 (7.6)</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>724 (12.9)</t>
+          <t>986 (13.9)</t>
         </is>
       </c>
     </row>
@@ -724,12 +724,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>324 (26.9)</t>
+          <t>432 (28.7)</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2104 (37.5)</t>
+          <t>2806 (39.7)</t>
         </is>
       </c>
     </row>
@@ -746,12 +746,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>259 (21.5)</t>
+          <t>313 (20.8)</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1180 (21.1)</t>
+          <t>1420 (20.1)</t>
         </is>
       </c>
     </row>
@@ -768,12 +768,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>568 (47.2)</t>
+          <t>850 (56.6)</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2699 (48.2)</t>
+          <t>4061 (57.4)</t>
         </is>
       </c>
     </row>
@@ -790,12 +790,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>46 (3.8)</t>
+          <t>55 (3.7)</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>176 (3.1)</t>
+          <t>214 (3.0)</t>
         </is>
       </c>
     </row>
@@ -812,12 +812,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>510 (42.4)</t>
+          <t>684 (45.5)</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2704 (48.2)</t>
+          <t>3665 (51.8)</t>
         </is>
       </c>
     </row>
@@ -834,12 +834,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>823 (68.4)</t>
+          <t>1030 (68.5)</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>3655 (65.2)</t>
+          <t>4617 (65.3)</t>
         </is>
       </c>
     </row>
@@ -856,12 +856,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>467 (38.8)</t>
+          <t>578 (38.5)</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2147 (38.3)</t>
+          <t>2710 (38.3)</t>
         </is>
       </c>
     </row>
@@ -878,12 +878,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>325 (27.0)</t>
+          <t>405 (26.9)</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1573 (28.1)</t>
+          <t>1930 (27.3)</t>
         </is>
       </c>
     </row>
@@ -900,12 +900,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>21 (1.7)</t>
+          <t>22 (1.5)</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>128 (2.3)</t>
+          <t>137 (1.9)</t>
         </is>
       </c>
     </row>
@@ -922,12 +922,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>345 (28.7)</t>
+          <t>445 (29.6)</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2144 (38.3)</t>
+          <t>2814 (39.8)</t>
         </is>
       </c>
     </row>
@@ -944,7 +944,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>1 (0.1)</t>
+          <t>3 (0.2)</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -962,12 +962,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>10 (0.8)</t>
+          <t>14 (0.9)</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>32 (0.6)</t>
+          <t>45 (0.6)</t>
         </is>
       </c>
     </row>
@@ -980,12 +980,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>94 (7.8)</t>
+          <t>124 (8.3)</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>301 (5.4)</t>
+          <t>393 (5.6)</t>
         </is>
       </c>
     </row>
@@ -998,12 +998,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>1098 (91.3)</t>
+          <t>1362 (90.6)</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>5271 (94.0)</t>
+          <t>6634 (93.8)</t>
         </is>
       </c>
     </row>
@@ -1020,12 +1020,12 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>27 (2.2)</t>
+          <t>33 (2.2)</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>138 (2.5)</t>
+          <t>167 (2.4)</t>
         </is>
       </c>
     </row>
@@ -1038,12 +1038,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>475 (39.5)</t>
+          <t>582 (38.7)</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>1565 (27.9)</t>
+          <t>1988 (28.1)</t>
         </is>
       </c>
     </row>
@@ -1056,12 +1056,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>701 (58.3)</t>
+          <t>888 (59.1)</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>3902 (69.6)</t>
+          <t>4918 (69.5)</t>
         </is>
       </c>
     </row>
@@ -1078,12 +1078,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>53 (4.4)</t>
+          <t>62 (4.1)</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>249 (4.4)</t>
+          <t>305 (4.3)</t>
         </is>
       </c>
     </row>
@@ -1100,12 +1100,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>86 (7.1)</t>
+          <t>103 (6.9)</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>346 (6.2)</t>
+          <t>384 (5.4)</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>27 (0.5)</t>
+          <t>33 (0.5)</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>12 (0.2)</t>
+          <t>14 (0.2)</t>
         </is>
       </c>
     </row>
@@ -1166,12 +1166,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>2 (0.2)</t>
+          <t>2 (0.1)</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>7 (0.1)</t>
+          <t>9 (0.1)</t>
         </is>
       </c>
     </row>
@@ -1184,12 +1184,12 @@
       <c r="B37" s="1" t="inlineStr"/>
       <c r="C37" t="inlineStr">
         <is>
-          <t>63 [50,76]</t>
+          <t>64 [51,76]</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>68 [57,79]</t>
+          <t>68 [58,79]</t>
         </is>
       </c>
     </row>
@@ -1202,12 +1202,12 @@
       <c r="B38" s="1" t="inlineStr"/>
       <c r="C38" t="inlineStr">
         <is>
-          <t>5.50 [3.38,9.88]</t>
+          <t>5.83 [3.54,10.17]</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>5.83 [3.46,10.50]</t>
+          <t>5.90 [3.57,10.51]</t>
         </is>
       </c>
     </row>
@@ -1220,12 +1220,12 @@
       <c r="B39" s="1" t="inlineStr"/>
       <c r="C39" t="inlineStr">
         <is>
-          <t>4.58 [2.92,8.88]</t>
+          <t>4.54 [2.96,8.79]</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>4.46 [2.92,8.25]</t>
+          <t>4.42 [2.92,8.17]</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>6 [4,8]</t>
+          <t>6 [4,9]</t>
         </is>
       </c>
     </row>
@@ -1274,12 +1274,12 @@
       <c r="B42" s="1" t="inlineStr"/>
       <c r="C42" t="inlineStr">
         <is>
-          <t>0.31 [0.13,0.53]</t>
+          <t>0.33 [0.16,0.54]</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>0.27 [0.13,0.47]</t>
+          <t>0.29 [0.15,0.48]</t>
         </is>
       </c>
     </row>
@@ -1292,12 +1292,12 @@
       <c r="B43" s="1" t="inlineStr"/>
       <c r="C43" t="inlineStr">
         <is>
-          <t>3.0 [1.0,10.0]</t>
+          <t>2.0 [1.0,7.0]</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>3.0 [1.0,13.0]</t>
+          <t>3.0 [1.0,8.0]</t>
         </is>
       </c>
     </row>
@@ -1310,12 +1310,12 @@
       <c r="B44" s="1" t="inlineStr"/>
       <c r="C44" t="inlineStr">
         <is>
-          <t>39.0 [12.0,99.0]</t>
+          <t>41.0 [10.0,91.0]</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>45.0 [14.2,99.8]</t>
+          <t>45.0 [12.0,100.2]</t>
         </is>
       </c>
     </row>
@@ -1328,12 +1328,12 @@
       <c r="B45" s="1" t="inlineStr"/>
       <c r="C45" t="inlineStr">
         <is>
-          <t>4.0 [1.0,13.0]</t>
+          <t>3.0 [1.0,11.0]</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>3.0 [1.0,12.0]</t>
+          <t>3.0 [1.0,10.0]</t>
         </is>
       </c>
     </row>
@@ -1346,12 +1346,12 @@
       <c r="B46" s="1" t="inlineStr"/>
       <c r="C46" t="inlineStr">
         <is>
-          <t>0.25 [0.09,0.49]</t>
+          <t>0.25 [0.10,0.48]</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>0.25 [0.09,0.48]</t>
+          <t>0.25 [0.09,0.47]</t>
         </is>
       </c>
     </row>

--- a/results/table2/MV.xlsx
+++ b/results/table2/MV.xlsx
@@ -939,17 +939,17 @@
       </c>
       <c r="B25" s="1" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>3 (0.2)</t>
+          <t>1362 (90.6)</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>1 (0.0)</t>
+          <t>6634 (93.8)</t>
         </is>
       </c>
     </row>
@@ -957,17 +957,17 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="1" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>14 (0.9)</t>
+          <t>3 (0.2)</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>45 (0.6)</t>
+          <t>1 (0.0)</t>
         </is>
       </c>
     </row>
@@ -975,17 +975,17 @@
       <c r="A27" s="1" t="n"/>
       <c r="B27" s="1" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>124 (8.3)</t>
+          <t>14 (0.9)</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>393 (5.6)</t>
+          <t>45 (0.6)</t>
         </is>
       </c>
     </row>
@@ -993,17 +993,17 @@
       <c r="A28" s="1" t="n"/>
       <c r="B28" s="1" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>1362 (90.6)</t>
+          <t>124 (8.3)</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>6634 (93.8)</t>
+          <t>393 (5.6)</t>
         </is>
       </c>
     </row>

--- a/results/table2/MV.xlsx
+++ b/results/table2/MV.xlsx
@@ -467,7 +467,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D46"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -939,17 +939,17 @@
       </c>
       <c r="B25" s="1" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>1362 (90.6)</t>
+          <t>1379 (91.7)</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>6634 (93.8)</t>
+          <t>6680 (94.4)</t>
         </is>
       </c>
     </row>
@@ -957,35 +957,39 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="1" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>124 (8.3)</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>393 (5.6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>Diabetes Type, n (%)</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
           <t>1.0</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>3 (0.2)</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>1 (0.0)</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="1" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>14 (0.9)</t>
+          <t>33 (2.2)</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>45 (0.6)</t>
+          <t>167 (2.4)</t>
         </is>
       </c>
     </row>
@@ -993,82 +997,86 @@
       <c r="A28" s="1" t="n"/>
       <c r="B28" s="1" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>124 (8.3)</t>
+          <t>582 (38.7)</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>393 (5.6)</t>
+          <t>1988 (28.1)</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="inlineStr">
-        <is>
-          <t>Diabetes Type, n (%)</t>
-        </is>
-      </c>
+      <c r="A29" s="1" t="n"/>
       <c r="B29" s="1" t="inlineStr">
         <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>888 (59.1)</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>4918 (69.5)</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>Connective Tissue Disease, n (%)</t>
+        </is>
+      </c>
+      <c r="B30" s="1" t="inlineStr">
+        <is>
           <t>1.0</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>33 (2.2)</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>167 (2.4)</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n"/>
-      <c r="B30" s="1" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>582 (38.7)</t>
+          <t>62 (4.1)</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>1988 (28.1)</t>
+          <t>305 (4.3)</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="n"/>
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>Pneumonia, n (%)</t>
+        </is>
+      </c>
       <c r="B31" s="1" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>888 (59.1)</t>
+          <t>103 (6.9)</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>4918 (69.5)</t>
+          <t>384 (5.4)</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Connective Tissue Disease, n (%)</t>
+          <t>Urinary Tract Infection, n (%)</t>
         </is>
       </c>
       <c r="B32" s="1" t="inlineStr">
@@ -1078,19 +1086,19 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>62 (4.1)</t>
+          <t>4 (0.3)</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>305 (4.3)</t>
+          <t>33 (0.5)</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Pneumonia, n (%)</t>
+          <t>Biliary Tract Infection, n (%)</t>
         </is>
       </c>
       <c r="B33" s="1" t="inlineStr">
@@ -1100,19 +1108,19 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>103 (6.9)</t>
+          <t>1 (0.1)</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>384 (5.4)</t>
+          <t>14 (0.2)</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Urinary Tract Infection, n (%)</t>
+          <t>Skin Infection, n (%)</t>
         </is>
       </c>
       <c r="B34" s="1" t="inlineStr">
@@ -1122,234 +1130,190 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>4 (0.3)</t>
+          <t>2 (0.1)</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>33 (0.5)</t>
+          <t>9 (0.1)</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Biliary Tract Infection, n (%)</t>
-        </is>
-      </c>
-      <c r="B35" s="1" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
+          <t>Age, median [Q1,Q3]</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr"/>
       <c r="C35" t="inlineStr">
         <is>
-          <t>1 (0.1)</t>
+          <t>64 [51,76]</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>14 (0.2)</t>
+          <t>68 [58,79]</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Skin Infection, n (%)</t>
-        </is>
-      </c>
-      <c r="B36" s="1" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
+          <t>ICU LOS (days, if deceased), median [Q1,Q3]</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr"/>
       <c r="C36" t="inlineStr">
         <is>
-          <t>2 (0.1)</t>
+          <t>5.83 [3.54,10.17]</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>9 (0.1)</t>
+          <t>5.90 [3.57,10.51]</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Age, median [Q1,Q3]</t>
+          <t>ICU LOS (days, if survived), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B37" s="1" t="inlineStr"/>
       <c r="C37" t="inlineStr">
         <is>
-          <t>64 [51,76]</t>
+          <t>4.54 [2.96,8.79]</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>68 [58,79]</t>
+          <t>4.42 [2.92,8.17]</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>ICU LOS (days, if deceased), median [Q1,Q3]</t>
+          <t>Charlson Comorbidity Index, median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B38" s="1" t="inlineStr"/>
       <c r="C38" t="inlineStr">
         <is>
-          <t>5.83 [3.54,10.17]</t>
+          <t>6 [4,8]</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>5.90 [3.57,10.51]</t>
+          <t>6 [4,8]</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>ICU LOS (days, if survived), median [Q1,Q3]</t>
+          <t>SOFA Score (admission), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B39" s="1" t="inlineStr"/>
       <c r="C39" t="inlineStr">
         <is>
-          <t>4.54 [2.96,8.79]</t>
+          <t>6 [4,9]</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>4.42 [2.92,8.17]</t>
+          <t>6 [4,9]</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>Charlson Comorbidity Index, median [Q1,Q3]</t>
+          <t>MV Time (duration in the stay, % of ICU LOS), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B40" s="1" t="inlineStr"/>
       <c r="C40" t="inlineStr">
         <is>
-          <t>6 [4,8]</t>
+          <t>0.33 [0.16,0.54]</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>6 [4,8]</t>
+          <t>0.29 [0.15,0.48]</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>SOFA Score (admission), median [Q1,Q3]</t>
+          <t>MV_init_offset_abs_hours, median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B41" s="1" t="inlineStr"/>
       <c r="C41" t="inlineStr">
         <is>
-          <t>6 [4,9]</t>
+          <t>2.0 [1.0,7.0]</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>6 [4,9]</t>
+          <t>3.0 [1.0,8.0]</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>MV Time (duration in the stay, % of ICU LOS), median [Q1,Q3]</t>
+          <t>RRT_init_offset_abs_hours, median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B42" s="1" t="inlineStr"/>
       <c r="C42" t="inlineStr">
         <is>
-          <t>0.33 [0.16,0.54]</t>
+          <t>41.0 [10.0,91.0]</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>0.29 [0.15,0.48]</t>
+          <t>45.0 [12.0,100.2]</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>MV_init_offset_abs_hours, median [Q1,Q3]</t>
+          <t>VP_init_offset_abs_hours, median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B43" s="1" t="inlineStr"/>
       <c r="C43" t="inlineStr">
         <is>
-          <t>2.0 [1.0,7.0]</t>
+          <t>3.0 [1.0,11.0]</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>3.0 [1.0,8.0]</t>
+          <t>3.0 [1.0,10.0]</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>RRT_init_offset_abs_hours, median [Q1,Q3]</t>
+          <t>Vasopressor Time (duration in the stay, % of ICU LOS), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B44" s="1" t="inlineStr"/>
       <c r="C44" t="inlineStr">
         <is>
-          <t>41.0 [10.0,91.0]</t>
+          <t>0.25 [0.10,0.48]</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
-        <is>
-          <t>45.0 [12.0,100.2]</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="inlineStr">
-        <is>
-          <t>VP_init_offset_abs_hours, median [Q1,Q3]</t>
-        </is>
-      </c>
-      <c r="B45" s="1" t="inlineStr"/>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>3.0 [1.0,11.0]</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>3.0 [1.0,10.0]</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="inlineStr">
-        <is>
-          <t>Vasopressor Time (duration in the stay, % of ICU LOS), median [Q1,Q3]</t>
-        </is>
-      </c>
-      <c r="B46" s="1" t="inlineStr"/>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>0.25 [0.10,0.48]</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
         <is>
           <t>0.25 [0.09,0.47]</t>
         </is>
@@ -1358,10 +1322,10 @@
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A25:A26"/>
     <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A29:A31"/>
     <mergeCell ref="A5:A8"/>
-    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="A27:A29"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
